--- a/biology/Zoologie/Euploea_goudotii/Euploea_goudotii.xlsx
+++ b/biology/Zoologie/Euploea_goudotii/Euploea_goudotii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euploea goudotii ou Euploea euphon goudotii est un insecte lépidoptère  de la  famille  des  Nymphalidae, de la sous-famille des Danainae et du genre Euploea endémique de La Réunion.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euploea goudotii a été décrit par Jean-Baptiste Alphonse Dechauffour de Boisduval en 1833[1].
-Taxonomie
-Euploea goudotii est pour généralement considéré comme une espèce à part entière[2],[3]. Cependant certains documents le nomment Euploea euphon goudotii comme donc une sous-espèce d' Euploea euphon.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euploea goudotii a été décrit par Jean-Baptiste Alphonse Dechauffour de Boisduval en 1833.
 </t>
         </is>
       </c>
@@ -541,16 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ce grand papillon marron présente aux ailes postérieures une bande submarginale de taches blanche qui se rejoignent pour former une bande submarginale blanche. Les ailes antérieures sont uniformément marron.
-Chenille
-La chenille avec des cornes, est ornée d'une bande foncée sur le dos et ses flancs sont rose orangé.
-Chrysalide
-Elle est de couleur argentée.
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euploea goudotii est pour généralement considéré comme une espèce à part entière,. Cependant certains documents le nomment Euploea euphon goudotii comme donc une sous-espèce d' Euploea euphon.
 </t>
         </is>
       </c>
@@ -576,13 +590,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Asclepiadaceae Secamone dilapidens et Secamone saligna, et à défaut le laurier rose Nerium oleander, un Apocynacées[1],[4].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce grand papillon marron présente aux ailes postérieures une bande submarginale de taches blanche qui se rejoignent pour former une bande submarginale blanche. Les ailes antérieures sont uniformément marron.
 </t>
         </is>
       </c>
@@ -608,16 +623,199 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille avec des cornes, est ornée d'une bande foncée sur le dos et ses flancs sont rose orangé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euploea_goudotii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_goudotii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chrysalide</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est de couleur argentée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Euploea_goudotii</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_goudotii</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Asclepiadaceae Secamone dilapidens et Secamone saligna, et à défaut le laurier rose Nerium oleander, un Apocynacées,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Euploea_goudotii</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_goudotii</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euploea goudotii est présent aux Mascareignes, endémique de l'ile de La Réunion[1].
-Biotope
-Euploea goudotii est présent sur toute l'ile de La Réunion, à toutes les altitudes.
-Protection
-Il figure sur la liste rouge des rhopalocères de La Réunion comme NT[5].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euploea goudotii est présent aux Mascareignes, endémique de l'ile de La Réunion.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Euploea_goudotii</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_goudotii</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euploea goudotii est présent sur toute l'ile de La Réunion, à toutes les altitudes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Euploea_goudotii</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_goudotii</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il figure sur la liste rouge des rhopalocères de La Réunion comme NT.
 </t>
         </is>
       </c>
